--- a/data/metadata/jira-fields.xlsx
+++ b/data/metadata/jira-fields.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C139"/>
+  <dimension ref="A1:C138"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="C3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="C6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -537,7 +537,7 @@
         </is>
       </c>
       <c r="C7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="C8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="C9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -582,7 +582,7 @@
         </is>
       </c>
       <c r="C10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -597,7 +597,7 @@
         </is>
       </c>
       <c r="C11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="C12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -627,7 +627,7 @@
         </is>
       </c>
       <c r="C13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -642,7 +642,7 @@
         </is>
       </c>
       <c r="C14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -657,7 +657,7 @@
         </is>
       </c>
       <c r="C15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -672,7 +672,7 @@
         </is>
       </c>
       <c r="C16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -687,7 +687,7 @@
         </is>
       </c>
       <c r="C17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -717,7 +717,7 @@
         </is>
       </c>
       <c r="C19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="C20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -747,7 +747,7 @@
         </is>
       </c>
       <c r="C21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -762,7 +762,7 @@
         </is>
       </c>
       <c r="C22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -777,7 +777,7 @@
         </is>
       </c>
       <c r="C23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -792,7 +792,7 @@
         </is>
       </c>
       <c r="C24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="C25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="C27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -852,7 +852,7 @@
         </is>
       </c>
       <c r="C28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -882,7 +882,7 @@
         </is>
       </c>
       <c r="C30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -912,7 +912,7 @@
         </is>
       </c>
       <c r="C32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -942,7 +942,7 @@
         </is>
       </c>
       <c r="C34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="C36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1002,7 +1002,7 @@
         </is>
       </c>
       <c r="C38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1017,7 +1017,7 @@
         </is>
       </c>
       <c r="C39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1032,7 +1032,7 @@
         </is>
       </c>
       <c r="C40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="C41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1062,7 +1062,7 @@
         </is>
       </c>
       <c r="C42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1077,7 +1077,7 @@
         </is>
       </c>
       <c r="C43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1122,7 +1122,7 @@
         </is>
       </c>
       <c r="C46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -1137,7 +1137,7 @@
         </is>
       </c>
       <c r="C47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -1152,7 +1152,7 @@
         </is>
       </c>
       <c r="C48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -1167,7 +1167,7 @@
         </is>
       </c>
       <c r="C49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -1182,7 +1182,7 @@
         </is>
       </c>
       <c r="C50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -1212,7 +1212,7 @@
         </is>
       </c>
       <c r="C52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -1227,7 +1227,7 @@
         </is>
       </c>
       <c r="C53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -1257,7 +1257,7 @@
         </is>
       </c>
       <c r="C55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -1272,7 +1272,7 @@
         </is>
       </c>
       <c r="C56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="C57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -1302,7 +1302,7 @@
         </is>
       </c>
       <c r="C58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -1332,7 +1332,7 @@
         </is>
       </c>
       <c r="C60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -1347,7 +1347,7 @@
         </is>
       </c>
       <c r="C61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -1362,7 +1362,7 @@
         </is>
       </c>
       <c r="C62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -1392,7 +1392,7 @@
         </is>
       </c>
       <c r="C64" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -1407,7 +1407,7 @@
         </is>
       </c>
       <c r="C65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -1422,7 +1422,7 @@
         </is>
       </c>
       <c r="C66" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -1452,7 +1452,7 @@
         </is>
       </c>
       <c r="C68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -1482,7 +1482,7 @@
         </is>
       </c>
       <c r="C70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -1497,7 +1497,7 @@
         </is>
       </c>
       <c r="C71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -1512,7 +1512,7 @@
         </is>
       </c>
       <c r="C72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="C73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -1542,7 +1542,7 @@
         </is>
       </c>
       <c r="C74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -1572,7 +1572,7 @@
         </is>
       </c>
       <c r="C76" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -1587,7 +1587,7 @@
         </is>
       </c>
       <c r="C77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -1602,7 +1602,7 @@
         </is>
       </c>
       <c r="C78" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -1647,7 +1647,7 @@
         </is>
       </c>
       <c r="C81" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -1662,7 +1662,7 @@
         </is>
       </c>
       <c r="C82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -1677,7 +1677,7 @@
         </is>
       </c>
       <c r="C83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -1692,7 +1692,7 @@
         </is>
       </c>
       <c r="C84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -1707,7 +1707,7 @@
         </is>
       </c>
       <c r="C85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -1752,7 +1752,7 @@
         </is>
       </c>
       <c r="C88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="C89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -1782,7 +1782,7 @@
         </is>
       </c>
       <c r="C90" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
@@ -1797,7 +1797,7 @@
         </is>
       </c>
       <c r="C91" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -1827,7 +1827,7 @@
         </is>
       </c>
       <c r="C93" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -1842,7 +1842,7 @@
         </is>
       </c>
       <c r="C94" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
@@ -1872,7 +1872,7 @@
         </is>
       </c>
       <c r="C96" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -1887,7 +1887,7 @@
         </is>
       </c>
       <c r="C97" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -1902,7 +1902,7 @@
         </is>
       </c>
       <c r="C98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -1932,7 +1932,7 @@
         </is>
       </c>
       <c r="C100" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -1947,7 +1947,7 @@
         </is>
       </c>
       <c r="C101" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102">
@@ -1962,7 +1962,7 @@
         </is>
       </c>
       <c r="C102" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103">
@@ -1977,7 +1977,7 @@
         </is>
       </c>
       <c r="C103" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104">
@@ -1992,7 +1992,7 @@
         </is>
       </c>
       <c r="C104" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105">
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="C105" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106">
@@ -2022,7 +2022,7 @@
         </is>
       </c>
       <c r="C106" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107">
@@ -2037,7 +2037,7 @@
         </is>
       </c>
       <c r="C107" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108">
@@ -2052,7 +2052,7 @@
         </is>
       </c>
       <c r="C108" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109">
@@ -2067,7 +2067,7 @@
         </is>
       </c>
       <c r="C109" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110">
@@ -2082,442 +2082,427 @@
         </is>
       </c>
       <c r="C110" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Compass</t>
+          <t>Rank</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>customfield_10099</t>
+          <t>customfield_10011</t>
         </is>
       </c>
       <c r="C111" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Rank</t>
+          <t>[CHART] Date of First Response</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>customfield_10011</t>
+          <t>customfield_10012</t>
         </is>
       </c>
       <c r="C112" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>[CHART] Date of First Response</t>
+          <t>[CHART] Time in Status</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>customfield_10012</t>
+          <t>customfield_10013</t>
         </is>
       </c>
       <c r="C113" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>[CHART] Time in Status</t>
+          <t>Time tracking</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>customfield_10013</t>
+          <t>timetracking</t>
         </is>
       </c>
       <c r="C114" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Time tracking</t>
+          <t>Epic Name</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>timetracking</t>
+          <t>customfield_10005</t>
         </is>
       </c>
       <c r="C115" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Epic Name</t>
+          <t>Epic Status</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>customfield_10005</t>
+          <t>customfield_10006</t>
         </is>
       </c>
       <c r="C116" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Epic Status</t>
+          <t>Epic Colour</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>customfield_10006</t>
+          <t>customfield_10007</t>
         </is>
       </c>
       <c r="C117" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Epic Colour</t>
+          <t>Security Level</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>customfield_10007</t>
+          <t>security</t>
         </is>
       </c>
       <c r="C118" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Security Level</t>
+          <t>Epic Link</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>security</t>
+          <t>customfield_10008</t>
         </is>
       </c>
       <c r="C119" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Epic Link</t>
+          <t>Attachment</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>customfield_10008</t>
+          <t>attachment</t>
         </is>
       </c>
       <c r="C120" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Attachment</t>
+          <t>Parent Link</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>attachment</t>
+          <t>customfield_10009</t>
         </is>
       </c>
       <c r="C121" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Parent Link</t>
+          <t>Summary</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>customfield_10009</t>
+          <t>summary</t>
         </is>
       </c>
       <c r="C122" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Summary</t>
+          <t>Was data deleted?</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>summary</t>
+          <t>customfield_10080</t>
         </is>
       </c>
       <c r="C123" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Was data deleted?</t>
+          <t>ICPSR Deposit Title</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>customfield_10080</t>
+          <t>customfield_10081</t>
         </is>
       </c>
       <c r="C124" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>ICPSR Deposit Title</t>
+          <t>DCAF_README_checked</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>customfield_10081</t>
+          <t>customfield_10082</t>
         </is>
       </c>
       <c r="C125" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>DCAF_README_checked</t>
+          <t>DCAF_README_compliant</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>customfield_10082</t>
+          <t>customfield_10083</t>
         </is>
       </c>
       <c r="C126" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>DCAF_README_compliant</t>
+          <t>DCAF_Access_Restrictions</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>customfield_10083</t>
+          <t>customfield_10084</t>
         </is>
       </c>
       <c r="C127" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>DCAF_Access_Restrictions</t>
+          <t>Alt Display Eligibility</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>customfield_10084</t>
+          <t>customfield_10085</t>
         </is>
       </c>
       <c r="C128" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Alt Display Eligibility</t>
+          <t>Computing URL</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>customfield_10085</t>
+          <t>customfield_10086</t>
         </is>
       </c>
       <c r="C129" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Computing URL</t>
+          <t>Candidate for Best Package NOTES</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>customfield_10086</t>
+          <t>customfield_10087</t>
         </is>
       </c>
       <c r="C130" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Candidate for Best Package NOTES</t>
+          <t>Release Notes PUBLIC</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>customfield_10087</t>
+          <t>customfield_10088</t>
         </is>
       </c>
       <c r="C131" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Release Notes PUBLIC</t>
+          <t>Development</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>customfield_10088</t>
+          <t>customfield_10000</t>
         </is>
       </c>
       <c r="C132" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Development</t>
+          <t>Initiate WholeTale</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>customfield_10000</t>
+          <t>customfield_10089</t>
         </is>
       </c>
       <c r="C133" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Initiate WholeTale</t>
+          <t>Team</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>customfield_10089</t>
+          <t>customfield_10001</t>
         </is>
       </c>
       <c r="C134" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Team</t>
+          <t>Organizations</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>customfield_10001</t>
+          <t>customfield_10004</t>
         </is>
       </c>
       <c r="C135" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Organizations</t>
+          <t>Environment</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>customfield_10004</t>
+          <t>environment</t>
         </is>
       </c>
       <c r="C136" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Environment</t>
+          <t>Due date</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>environment</t>
+          <t>duedate</t>
         </is>
       </c>
       <c r="C137" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Due date</t>
+          <t>Comment</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>duedate</t>
+          <t>comment</t>
         </is>
       </c>
       <c r="C138" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="inlineStr">
-        <is>
-          <t>Comment</t>
-        </is>
-      </c>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>comment</t>
-        </is>
-      </c>
-      <c r="C139" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data/metadata/jira-fields.xlsx
+++ b/data/metadata/jira-fields.xlsx
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="C2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="C3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="C4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -663,12 +663,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Resolution</t>
+          <t>Agreement signed</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>resolution</t>
+          <t>customfield_10079</t>
         </is>
       </c>
       <c r="C16" t="b">
@@ -678,31 +678,31 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Agreement signed</t>
+          <t>Consulting Assignee</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>customfield_10079</t>
+          <t>customfield_10112</t>
         </is>
       </c>
       <c r="C17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Consulting Assignee</t>
+          <t>Resolution</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>customfield_10112</t>
+          <t>resolution</t>
         </is>
       </c>
       <c r="C18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -747,7 +747,7 @@
         </is>
       </c>
       <c r="C21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -762,7 +762,7 @@
         </is>
       </c>
       <c r="C22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -852,7 +852,7 @@
         </is>
       </c>
       <c r="C28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -927,7 +927,7 @@
         </is>
       </c>
       <c r="C33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1002,7 +1002,7 @@
         </is>
       </c>
       <c r="C38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1023,12 +1023,12 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Labels</t>
+          <t>Affected services</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>labels</t>
+          <t>customfield_10103</t>
         </is>
       </c>
       <c r="C40" t="b">
@@ -1038,12 +1038,12 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Affected services</t>
+          <t>Labels</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>customfield_10103</t>
+          <t>labels</t>
         </is>
       </c>
       <c r="C41" t="b">
@@ -1212,7 +1212,7 @@
         </is>
       </c>
       <c r="C52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -1383,31 +1383,31 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Reporter</t>
+          <t>openICPSR Project Number</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>reporter</t>
+          <t>customfield_10043</t>
         </is>
       </c>
       <c r="C64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>openICPSR Project Number</t>
+          <t>Reporter</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>customfield_10043</t>
+          <t>reporter</t>
         </is>
       </c>
       <c r="C65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -1452,7 +1452,7 @@
         </is>
       </c>
       <c r="C68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -1482,7 +1482,7 @@
         </is>
       </c>
       <c r="C70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -1872,7 +1872,7 @@
         </is>
       </c>
       <c r="C96" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="C99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -2043,12 +2043,12 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Locked forms</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>description</t>
+          <t>customfield_10097</t>
         </is>
       </c>
       <c r="C108" t="b">
@@ -2058,12 +2058,12 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Locked forms</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>customfield_10097</t>
+          <t>description</t>
         </is>
       </c>
       <c r="C109" t="b">
@@ -2193,12 +2193,12 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Security Level</t>
+          <t>Epic Colour</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>security</t>
+          <t>customfield_10007</t>
         </is>
       </c>
       <c r="C118" t="b">
@@ -2208,12 +2208,12 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Epic Colour</t>
+          <t>Security Level</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>customfield_10007</t>
+          <t>security</t>
         </is>
       </c>
       <c r="C119" t="b">
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="C123" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124">
@@ -2298,12 +2298,12 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>ICPSR Deposit Title</t>
+          <t>DCAF_README_checked</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>customfield_10081</t>
+          <t>customfield_10082</t>
         </is>
       </c>
       <c r="C125" t="b">
@@ -2313,12 +2313,12 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>DCAF_README_checked</t>
+          <t>DCAF_README_compliant</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>customfield_10082</t>
+          <t>customfield_10083</t>
         </is>
       </c>
       <c r="C126" t="b">
@@ -2328,42 +2328,42 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>DCAF_README_compliant</t>
+          <t>DCAF_Access_Restrictions</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>customfield_10083</t>
+          <t>customfield_10084</t>
         </is>
       </c>
       <c r="C127" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>DCAF_Access_Restrictions</t>
+          <t>Alt Display Eligibility</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>customfield_10084</t>
+          <t>customfield_10085</t>
         </is>
       </c>
       <c r="C128" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Alt Display Eligibility</t>
+          <t>Computing URL</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>customfield_10085</t>
+          <t>customfield_10086</t>
         </is>
       </c>
       <c r="C129" t="b">
@@ -2373,12 +2373,12 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Computing URL</t>
+          <t>Candidate for Best Package NOTES</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>customfield_10086</t>
+          <t>customfield_10087</t>
         </is>
       </c>
       <c r="C130" t="b">
@@ -2388,12 +2388,12 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Candidate for Best Package NOTES</t>
+          <t>Goals</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>customfield_10087</t>
+          <t>customfield_10120</t>
         </is>
       </c>
       <c r="C131" t="b">
@@ -2403,12 +2403,12 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Goals</t>
+          <t>Development</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>customfield_10120</t>
+          <t>customfield_10000</t>
         </is>
       </c>
       <c r="C132" t="b">
@@ -2418,12 +2418,12 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Development</t>
+          <t>Release Notes PUBLIC</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>customfield_10000</t>
+          <t>customfield_10088</t>
         </is>
       </c>
       <c r="C133" t="b">
@@ -2433,12 +2433,12 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Release Notes PUBLIC</t>
+          <t>ICPSR or other deposit title</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>customfield_10088</t>
+          <t>customfield_10121</t>
         </is>
       </c>
       <c r="C134" t="b">
@@ -2523,12 +2523,12 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Environment</t>
+          <t>Codeocean Capsule Number</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>environment</t>
+          <t>customfield_10117</t>
         </is>
       </c>
       <c r="C140" t="b">
@@ -2538,12 +2538,12 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Codeocean Capsule Number</t>
+          <t>Environment</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>customfield_10117</t>
+          <t>environment</t>
         </is>
       </c>
       <c r="C141" t="b">
@@ -2592,7 +2592,7 @@
         </is>
       </c>
       <c r="C144" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145">
